--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the prior level of cognitive function for the patient. (Strongly encouraged to use until more structured method is established)</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -765,7 +765,7 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t xml:space="preserve">The person who performed the assessment. May also be used to provide the practitioner role and organization. </t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1520,7 +1520,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3614,7 +3614,7 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -384,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://pacioproject.org/StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -592,6 +592,9 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://loinc.org</t>
   </si>
   <si>
@@ -831,9 +834,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -3614,11 +3614,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3651,27 +3651,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3694,19 +3694,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3755,7 +3755,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3770,19 +3770,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3813,16 +3813,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3872,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3893,13 +3893,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3907,11 +3907,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3930,19 +3930,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3991,7 +3991,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4006,19 +4006,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4026,11 +4026,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4049,19 +4049,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4110,7 +4110,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4125,19 +4125,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4168,16 +4168,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4227,7 +4227,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4248,13 +4248,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4285,17 +4285,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4344,7 +4344,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4359,19 +4359,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4405,16 +4405,16 @@
         <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4463,7 +4463,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4472,7 +4472,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4481,24 +4481,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4524,16 +4524,16 @@
         <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4558,7 +4558,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>261</v>
@@ -4582,7 +4582,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4677,7 +4677,7 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>271</v>
@@ -7304,13 +7304,13 @@
         <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7347,13 +7347,13 @@
         <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7423,16 +7423,16 @@
         <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7472,7 +7472,7 @@
         <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7497,7 +7497,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>261</v>
@@ -7616,7 +7616,7 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>271</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="448">
   <si>
     <t>Path</t>
   </si>
@@ -592,7 +592,13 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>extensible</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="11332-4"/&gt;
+    &lt;display value="History of Cognitive Function Narrative"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -614,6 +620,91 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>History of Cognitive Function Narrative</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -792,6 +883,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -836,6 +931,9 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -1060,28 +1158,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1315,10 +1392,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1501,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1537,7 +1610,7 @@
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3599,7 +3672,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3614,7 +3687,7 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
@@ -3679,7 +3752,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>55</v>
@@ -3691,23 +3764,19 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3755,7 +3824,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3767,22 +3836,22 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3790,11 +3859,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3810,19 +3879,19 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3860,19 +3929,19 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3884,7 +3953,7 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>45</v>
@@ -3893,13 +3962,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3907,18 +3976,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -3930,19 +3999,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3997,7 +4066,7 @@
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4006,19 +4075,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4026,11 +4095,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4049,19 +4118,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4071,7 +4140,7 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>45</v>
@@ -4110,7 +4179,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4125,19 +4194,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4145,7 +4214,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4153,7 +4222,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>55</v>
@@ -4168,18 +4237,20 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4227,7 +4298,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4242,19 +4313,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4262,7 +4333,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4270,7 +4341,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>44</v>
@@ -4285,18 +4356,18 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4344,7 +4415,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4359,19 +4430,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4379,11 +4450,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4402,19 +4473,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4463,7 +4534,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4472,41 +4543,41 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
@@ -4518,22 +4589,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4558,13 +4629,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4582,7 +4653,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4591,25 +4662,25 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4617,18 +4688,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4637,23 +4708,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4677,13 +4746,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4701,13 +4770,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4719,24 +4788,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4744,7 +4813,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>44</v>
@@ -4756,22 +4825,20 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4820,7 +4887,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4835,19 +4902,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4855,7 +4922,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4875,21 +4942,23 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4913,13 +4982,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4937,7 +5006,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4946,7 +5015,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -4955,24 +5024,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4998,16 +5067,16 @@
         <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5032,13 +5101,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5056,7 +5125,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5065,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5077,10 +5146,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5091,18 +5160,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5114,18 +5183,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5149,13 +5220,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5173,13 +5244,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5191,24 +5262,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5219,7 +5290,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5231,18 +5302,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5290,13 +5363,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5308,24 +5381,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5336,7 +5409,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5348,20 +5421,18 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5385,13 +5456,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5409,42 +5480,42 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5467,16 +5538,20 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5500,13 +5575,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5524,7 +5599,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5536,7 +5611,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5545,10 +5620,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5559,18 +5634,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5582,16 +5657,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5641,78 +5716,76 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5760,42 +5833,42 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5806,7 +5879,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5818,16 +5891,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5875,19 +5952,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>359</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5896,10 +5973,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5910,7 +5987,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5933,13 +6010,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5990,7 +6067,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5999,10 +6076,10 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6011,10 +6088,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6025,18 +6102,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6048,20 +6125,18 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6085,13 +6160,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6109,31 +6184,31 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6144,11 +6219,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6161,25 +6236,25 @@
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>124</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6204,13 +6279,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6228,7 +6303,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6240,19 +6315,19 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6263,7 +6338,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6286,18 +6361,16 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6345,7 +6418,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6354,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6366,10 +6439,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6380,7 +6453,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6403,13 +6476,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6460,7 +6533,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6469,7 +6542,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6481,10 +6554,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6495,7 +6568,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6506,7 +6579,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6515,21 +6588,23 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6553,13 +6628,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6577,13 +6652,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6595,13 +6670,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6612,7 +6687,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6632,21 +6707,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6670,13 +6747,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6694,7 +6771,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6712,13 +6789,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6740,7 +6817,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6749,20 +6826,18 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M45" t="s" s="2">
         <v>399</v>
       </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
         <v>400</v>
       </c>
@@ -6819,7 +6894,7 @@
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6834,10 +6909,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6848,7 +6923,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6874,10 +6949,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6928,7 +7003,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6940,7 +7015,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6949,10 +7024,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6963,11 +7038,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6983,19 +7058,19 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7045,7 +7120,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7057,7 +7132,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7066,10 +7141,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7080,11 +7155,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7097,26 +7172,24 @@
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7164,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>413</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7176,7 +7249,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7185,10 +7258,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7199,7 +7272,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7207,10 +7280,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7222,19 +7295,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7259,13 +7332,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7283,13 +7356,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7301,16 +7374,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>188</v>
+        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7318,7 +7391,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7338,23 +7411,19 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>414</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7402,7 +7471,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7414,41 +7483,41 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7460,20 +7529,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>198</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7497,13 +7564,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7521,19 +7588,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>200</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7542,10 +7609,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7556,11 +7623,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7573,25 +7640,25 @@
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7616,13 +7683,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7640,7 +7707,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7652,30 +7719,30 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7683,10 +7750,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7695,22 +7762,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7735,13 +7802,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7759,13 +7826,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7777,23 +7844,499 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AO53" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7803,7 +8346,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the prior level of cognitive function for the patient. (Strongly encouraged to use until more structured method is established)</t>
+    <t>Text summary of the prior level of cognitive function for the patient.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -1593,7 +1593,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2334,7 +2334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>83</v>
       </c>
@@ -2344,13 +2344,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -384,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig/StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-cs/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="455">
   <si>
     <t>Path</t>
   </si>
@@ -616,7 +616,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -882,7 +882,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The person who performed the assessment. May also be used to provide the practitioner role and organization. </t>
+    <t>The person who performed the assessment. May also be used to provide the practitioner role and organization.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1406,9 +1406,6 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1627,7 +1624,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8117,7 +8114,7 @@
         <v>438</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>439</v>
+        <v>187</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8156,7 +8153,7 @@
         <v>46</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>190</v>
@@ -8173,7 +8170,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8199,13 +8196,13 @@
         <v>280</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>284</v>
@@ -8257,7 +8254,7 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8278,7 +8275,7 @@
         <v>46</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>288</v>
@@ -8295,7 +8292,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8321,13 +8318,13 @@
         <v>168</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>295</v>
@@ -8358,7 +8355,7 @@
         <v>296</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>297</v>
@@ -8379,7 +8376,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8388,7 +8385,7 @@
         <v>56</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>68</v>
@@ -8417,7 +8414,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8501,7 +8498,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8539,7 +8536,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8565,10 +8562,10 @@
         <v>46</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>362</v>
@@ -8623,7 +8620,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -387,7 +387,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-cs/StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig//StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -1614,48 +1614,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.89453125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -387,7 +384,7 @@
     <t>assistance-required</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig//StructureDefinition/assistance-required}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/cognitive-status-ig/StructureDefinition/assistance-required}
 </t>
   </si>
   <si>
@@ -524,7 +521,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -567,41 +567,26 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
-    <t>Laboratory Test Name</t>
-  </si>
-  <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -821,21 +806,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -910,10 +887,10 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -922,12 +899,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -961,11 +934,14 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1418,9 +1394,6 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1438,13 +1411,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1605,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1614,48 +1580,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1782,110 +1747,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1897,1319 +1859,1286 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>134</v>
@@ -3218,370 +3147,360 @@
         <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3590,23 +3509,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>168</v>
@@ -3624,29 +3543,29 @@
         <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>173</v>
@@ -3655,2833 +3574,2763 @@
         <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J22" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="G28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>46</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AF34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>349</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>359</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>358</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>365</v>
+        <v>195</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6490,26 +6339,26 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>371</v>
@@ -6517,601 +6366,584 @@
       <c r="L41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>375</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>168</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>403</v>
@@ -7120,118 +6952,113 @@
         <v>404</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="G47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>58</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>408</v>
@@ -7239,237 +7066,233 @@
       <c r="L47" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>420</v>
@@ -7480,1184 +7303,1037 @@
       <c r="M49" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>46</v>
+        <v>424</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>423</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J50" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>424</v>
+        <v>194</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>429</v>
+        <v>195</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>125</v>
+        <v>432</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>434</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>437</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AL54" t="s" s="2">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>449</v>
+        <v>301</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH56" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AO57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8667,7 +8343,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="446">
   <si>
     <t>Path</t>
   </si>
@@ -388,10 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Associated with prior level of cognitive function to provide indication of 'independent' vs. 'assistance needed'.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2827,10 +2824,10 @@
         <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2905,7 +2902,7 @@
         <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>45</v>
@@ -2916,11 +2913,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2942,16 +2939,16 @@
         <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -3000,7 +2997,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3058,17 +3055,17 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3117,7 +3114,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3132,19 +3129,19 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3152,11 +3149,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3175,17 +3172,17 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3234,7 +3231,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3249,16 +3246,16 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3269,11 +3266,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3292,16 +3289,16 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3351,7 +3348,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3366,16 +3363,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3386,7 +3383,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3412,16 +3409,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3446,14 +3443,14 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3485,19 +3482,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3502,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3528,19 +3525,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3568,11 +3565,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3589,7 +3586,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3613,10 +3610,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3624,11 +3621,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3647,19 +3644,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3669,7 +3666,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3684,11 +3681,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3703,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3721,27 +3718,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3767,10 +3764,10 @@
         <v>57</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3821,7 +3818,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3845,7 +3842,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3856,11 +3853,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3882,13 +3879,13 @@
         <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3929,7 +3926,7 @@
         <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
@@ -3938,7 +3935,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3962,7 +3959,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3996,19 +3993,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4057,7 +4054,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4078,10 +4075,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4092,7 +4089,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4118,16 +4115,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4137,46 +4134,46 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4197,10 +4194,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4234,19 +4231,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4295,7 +4292,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4310,19 +4307,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4330,7 +4327,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4353,16 +4350,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4412,7 +4409,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4433,13 +4430,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4447,11 +4444,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4470,19 +4467,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4531,7 +4528,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4546,19 +4543,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4566,11 +4563,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4589,19 +4586,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4650,7 +4647,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4665,19 +4662,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4708,16 +4705,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4767,7 +4764,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4788,13 +4785,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4825,17 +4822,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4884,7 +4881,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4899,19 +4896,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4942,19 +4939,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5003,7 +5000,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5012,7 +5009,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5021,24 +5018,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5061,19 +5058,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5098,14 +5095,14 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5122,7 +5119,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5131,7 +5128,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5146,7 +5143,7 @@
         <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5157,11 +5154,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5180,19 +5177,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5217,14 +5214,14 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5259,24 +5256,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5299,19 +5296,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5360,7 +5357,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5381,10 +5378,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5418,16 +5415,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5453,14 +5450,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5495,24 +5492,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5535,19 +5532,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5572,14 +5569,14 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5617,10 +5614,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5631,7 +5628,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5654,16 +5651,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5713,7 +5710,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5731,24 +5728,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5771,16 +5768,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5830,7 +5827,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5848,24 +5845,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5888,19 +5885,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5949,7 +5946,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5961,19 +5958,19 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5984,7 +5981,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6010,10 +6007,10 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6064,7 +6061,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6088,7 +6085,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6099,11 +6096,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6125,13 +6122,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6181,7 +6178,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6205,7 +6202,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6216,11 +6213,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6242,16 +6239,16 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M40" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6300,7 +6297,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6335,7 +6332,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6358,13 +6355,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6415,7 +6412,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6424,7 +6421,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6436,10 +6433,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6450,7 +6447,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6473,13 +6470,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6530,7 +6527,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6539,7 +6536,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6551,10 +6548,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6565,7 +6562,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6588,19 +6585,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6628,11 +6625,11 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6649,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6667,13 +6664,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6684,7 +6681,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6707,19 +6704,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6744,14 +6741,14 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6768,7 +6765,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6786,13 +6783,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6826,17 +6823,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6885,7 +6882,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6909,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6920,7 +6917,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6946,10 +6943,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7000,7 +6997,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7021,10 +7018,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7035,7 +7032,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7058,16 +7055,16 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7117,7 +7114,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7138,10 +7135,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7152,7 +7149,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7175,16 +7172,16 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7234,7 +7231,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7255,10 +7252,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7269,7 +7266,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7292,19 +7289,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7353,7 +7350,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7374,10 +7371,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7388,7 +7385,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7414,10 +7411,10 @@
         <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7468,7 +7465,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7492,7 +7489,7 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7503,11 +7500,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7529,13 +7526,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7585,7 +7582,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7609,7 +7606,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7620,11 +7617,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7646,16 +7643,16 @@
         <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7704,7 +7701,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7739,7 +7736,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7762,19 +7759,19 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7799,13 +7796,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7823,7 +7820,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>55</v>
@@ -7841,16 +7838,16 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -7858,7 +7855,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7881,19 +7878,19 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7942,7 +7939,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7960,24 +7957,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8000,19 +7997,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8037,14 +8034,14 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X55" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="X55" t="s" s="2">
+      <c r="Y55" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8061,7 +8058,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8070,7 +8067,7 @@
         <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>67</v>
@@ -8085,7 +8082,7 @@
         <v>98</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8096,11 +8093,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8119,19 +8116,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8156,14 +8153,14 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8180,7 +8177,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8198,24 +8195,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8241,16 +8238,16 @@
         <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8299,7 +8296,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8320,10 +8317,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -284,7 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the prior level of cognitive function for the patient.</t>
+    <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>55</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -388,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Associated with prior level of cognitive function to provide indication of 'independent' vs. 'assistance needed'.</t>
+    <t>Associated with prior level of cognitive function to provide indication of level of assistance needed. The 'CMS MDS Prior Functioning' answer list LL4970-1 provides exmples of possible values.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -880,11 +880,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
+    <t>Text summary of the prior level of cognitive function for the patient.</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -894,6 +890,9 @@
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>Text summary of the prior level of cognitive function for the patient. (Strongly encouraged until more structured method is established)</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1386,6 +1385,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1600,7 +1603,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="126.01171875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -2794,7 +2797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>99</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>45</v>
@@ -4924,7 +4927,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -4939,19 +4942,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4979,7 +4982,7 @@
         <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>45</v>
@@ -7878,19 +7881,19 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>274</v>
+        <v>435</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7957,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>281</v>
@@ -7974,7 +7977,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8000,13 +8003,13 @@
         <v>167</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>288</v>
@@ -8058,7 +8061,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8177,7 +8180,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8212,7 +8215,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8238,10 +8241,10 @@
         <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>356</v>
@@ -8296,7 +8299,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -388,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Associated with prior level of cognitive function to provide indication of level of assistance needed. The 'CMS MDS Prior Functioning' answer list LL4970-1 provides exmples of possible values.</t>
+    <t>Provides a high-level indication of assistance required for the person’s baseline ability (cognitive function immediately preceding the current admission, illness, or exacerbation for a patient) to answer cognitive related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2797,7 +2797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>99</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -388,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Provides a high-level indication of assistance required for the person’s baseline ability (cognitive function immediately preceding the current admission, illness, or exacerbation for a patient) to answer cognitive related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
+    <t>Associated with prior level of cognitive function to provide a high-level indication of assistance required for the person’s baseline ability (cognitive function immediately preceding the current admission, illness, or exacerbation for a patient) to answer cognitive related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -453,7 +453,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
+    <t>Currently not used in PriorLevelOfCognitiveFunction.</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
@@ -482,9 +482,6 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
@@ -503,7 +500,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>Should have the value 'final' when the observation is complete and there are no further actions needed. Otherwise, another value from the value set may appropriately be used.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -707,7 +704,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -742,9 +739,6 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
@@ -831,9 +825,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
@@ -856,7 +847,7 @@
 </t>
   </si>
   <si>
-    <t>The person who performed the assessment. May also be used to provide the practitioner role and organization.</t>
+    <t>The person who performed the assessment. The preferred way to specify the performer is to use the PractitionerRole resource to provide both the practitioner and organization.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -950,9 +941,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
@@ -1008,9 +996,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
@@ -1042,9 +1027,6 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done</t>
-  </si>
-  <si>
     <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
@@ -1073,9 +1055,6 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
     <t>The specimen that was used when this observation was made.</t>
   </si>
   <si>
@@ -1101,9 +1080,6 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
     <t>The device used to generate the observation data.</t>
   </si>
   <si>
@@ -1127,9 +1103,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
@@ -1301,9 +1274,6 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
@@ -1323,9 +1293,6 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from</t>
-  </si>
-  <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
@@ -1336,9 +1303,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1414,6 +1378,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1590,7 +1557,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3295,13 +3262,13 @@
         <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3366,16 +3333,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3386,7 +3353,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3412,16 +3379,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3446,14 +3413,14 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3470,7 +3437,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3485,19 +3452,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3472,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3528,19 +3495,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3568,11 +3535,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3589,7 +3556,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3613,10 +3580,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3624,11 +3591,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3647,19 +3614,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3669,7 +3636,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3684,11 +3651,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3673,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3721,27 +3688,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3767,10 +3734,10 @@
         <v>57</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3821,7 +3788,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3845,7 +3812,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3856,7 +3823,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3882,10 +3849,10 @@
         <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>123</v>
@@ -3929,7 +3896,7 @@
         <v>103</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
@@ -3938,7 +3905,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3962,7 +3929,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -3973,7 +3940,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3996,19 +3963,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4057,7 +4024,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4078,10 +4045,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4092,7 +4059,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4118,16 +4085,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4137,46 +4104,46 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4197,10 +4164,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4211,7 +4178,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4234,19 +4201,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4295,7 +4262,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4310,19 +4277,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4330,7 +4297,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4353,16 +4320,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4412,7 +4379,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4433,13 +4400,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4447,11 +4414,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4470,19 +4437,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4531,7 +4498,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4546,19 +4513,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4566,11 +4533,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4589,19 +4556,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4650,7 +4617,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4665,19 +4632,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4685,7 +4652,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4708,16 +4675,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4767,7 +4734,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4788,13 +4755,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4802,7 +4769,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4825,17 +4792,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4884,7 +4851,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4899,19 +4866,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4919,7 +4886,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4945,16 +4912,16 @@
         <v>57</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4982,7 +4949,7 @@
         <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>45</v>
@@ -5003,7 +4970,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5012,7 +4979,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5021,24 +4988,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5061,19 +5028,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5098,13 +5065,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5122,7 +5089,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5131,7 +5098,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5146,7 +5113,7 @@
         <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5157,11 +5124,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5180,19 +5147,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5217,13 +5184,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5241,7 +5208,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5259,24 +5226,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5299,19 +5266,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5360,7 +5327,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5381,10 +5348,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5395,7 +5362,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5418,16 +5385,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5453,13 +5420,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5477,7 +5444,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5495,24 +5462,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5535,19 +5502,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5572,13 +5539,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5596,7 +5563,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5617,10 +5584,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5631,7 +5598,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5654,16 +5621,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5713,7 +5680,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5731,24 +5698,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5771,16 +5738,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5830,7 +5797,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5848,24 +5815,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5888,19 +5855,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5949,7 +5916,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5961,7 +5928,7 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5970,10 +5937,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5984,7 +5951,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6010,10 +5977,10 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6064,7 +6031,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6088,7 +6055,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6099,7 +6066,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6125,10 +6092,10 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>123</v>
@@ -6181,7 +6148,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6205,7 +6172,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6216,11 +6183,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6242,10 +6209,10 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>123</v>
@@ -6300,7 +6267,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6335,7 +6302,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6358,13 +6325,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6415,7 +6382,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6424,7 +6391,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6436,10 +6403,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6450,7 +6417,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6473,13 +6440,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6530,7 +6497,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6539,7 +6506,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6551,10 +6518,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6565,7 +6532,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6588,19 +6555,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6628,10 +6595,10 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6649,7 +6616,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6667,13 +6634,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6684,7 +6651,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6707,19 +6674,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6744,13 +6711,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6768,7 +6735,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6786,13 +6753,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6803,7 +6770,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6826,17 +6793,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6885,7 +6852,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6909,7 +6876,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6920,7 +6887,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6946,10 +6913,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7000,7 +6967,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7021,10 +6988,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7035,7 +7002,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7058,16 +7025,16 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7117,7 +7084,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7138,10 +7105,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7152,7 +7119,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7175,16 +7142,16 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>414</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7234,7 +7201,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7255,10 +7222,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7269,7 +7236,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7292,19 +7259,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>419</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7353,7 +7320,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7374,10 +7341,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7388,7 +7355,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7414,10 +7381,10 @@
         <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7468,7 +7435,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7492,7 +7459,7 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7503,7 +7470,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7529,10 +7496,10 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>123</v>
@@ -7585,7 +7552,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7609,7 +7576,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7620,11 +7587,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7646,10 +7613,10 @@
         <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>123</v>
@@ -7704,7 +7671,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7739,7 +7706,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7762,19 +7729,19 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7799,13 +7766,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7823,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>55</v>
@@ -7841,16 +7808,16 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -7858,7 +7825,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7881,19 +7848,19 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7942,7 +7909,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7960,24 +7927,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8000,19 +7967,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8037,13 +8004,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8061,7 +8028,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8070,7 +8037,7 @@
         <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>67</v>
@@ -8085,7 +8052,7 @@
         <v>98</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8096,11 +8063,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8119,19 +8086,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8156,13 +8123,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8180,7 +8147,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8198,24 +8165,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8241,16 +8208,16 @@
         <v>45</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8299,7 +8266,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8320,10 +8287,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -704,7 +704,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="416">
   <si>
     <t>Path</t>
   </si>
@@ -359,10 +359,10 @@
 </t>
   </si>
   <si>
-    <t>Where event occurred</t>
-  </si>
-  <si>
-    <t>The principal physical location where the {{title}} was performed.</t>
+    <t>An extension to indicate where the observation event occurred.</t>
+  </si>
+  <si>
+    <t>The principal physical location where the observation event occurred.</t>
   </si>
   <si>
     <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
@@ -386,6 +386,9 @@
   <si>
     <t xml:space="preserve">Extension {http://paciowg.github.io/cognitive-status-ig/StructureDefinition/assistance-required}
 </t>
+  </si>
+  <si>
+    <t>An extension to indicate the level of assistance required for a patient during an assessment.</t>
   </si>
   <si>
     <t>Associated with prior level of cognitive function to provide a high-level indication of assistance required for the person’s baseline ability (cognitive function immediately preceding the current admission, illness, or exacerbation for a patient) to answer cognitive related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
@@ -616,91 +619,6 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>History of Cognitive Function Narrative</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>Observation.subject</t>
   </si>
   <si>
@@ -1127,7 +1045,28 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1538,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1574,7 +1513,7 @@
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2794,10 +2733,10 @@
         <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2883,11 +2822,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2909,16 +2848,16 @@
         <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2967,7 +2906,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -3002,7 +2941,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3025,17 +2964,17 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3084,7 +3023,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3099,19 +3038,19 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3119,11 +3058,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3142,17 +3081,17 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3201,7 +3140,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3216,16 +3155,16 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3236,11 +3175,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3259,16 +3198,16 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3318,7 +3257,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3333,16 +3272,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3353,7 +3292,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3379,16 +3318,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3413,13 +3352,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3437,7 +3376,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3452,19 +3391,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3472,7 +3411,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3495,19 +3434,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3535,10 +3474,10 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3556,7 +3495,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3580,10 +3519,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3591,11 +3530,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3614,19 +3553,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3636,7 +3575,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3651,11 +3590,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3673,7 +3612,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3688,27 +3627,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3716,7 +3655,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>55</v>
@@ -3728,19 +3667,23 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3788,7 +3731,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3800,22 +3743,22 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3823,11 +3766,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3843,19 +3786,19 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3893,19 +3836,19 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3917,7 +3860,7 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>45</v>
@@ -3926,13 +3869,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3940,18 +3883,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -3963,19 +3906,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4030,7 +3973,7 @@
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4039,19 +3982,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4059,15 +4002,15 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>
@@ -4082,19 +4025,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4104,7 +4047,7 @@
         <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>45</v>
@@ -4143,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4158,19 +4101,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4178,7 +4121,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4186,7 +4129,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>55</v>
@@ -4201,20 +4144,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4262,7 +4203,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4277,19 +4218,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4297,7 +4238,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4305,7 +4246,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>44</v>
@@ -4320,18 +4261,18 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4379,7 +4320,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4394,19 +4335,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4414,15 +4355,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
@@ -4437,19 +4378,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4477,7 +4418,7 @@
         <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>45</v>
@@ -4498,7 +4439,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4507,41 +4448,41 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
@@ -4553,22 +4494,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4593,13 +4534,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4617,7 +4558,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4626,25 +4567,25 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4652,18 +4593,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4672,21 +4613,23 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4710,13 +4653,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4734,13 +4677,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4752,24 +4695,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4777,7 +4720,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>44</v>
@@ -4789,20 +4732,22 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4851,7 +4796,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4866,19 +4811,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4886,7 +4831,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4894,7 +4839,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -4906,23 +4851,21 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4946,13 +4889,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4970,7 +4913,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4979,7 +4922,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -4988,24 +4931,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5028,19 +4971,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5068,10 +5011,10 @@
         <v>286</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5089,7 +5032,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5098,7 +5041,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5110,10 +5053,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5124,18 +5067,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5147,20 +5090,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5184,13 +5125,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5208,13 +5149,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5226,24 +5167,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5254,7 +5195,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5266,20 +5207,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5327,13 +5266,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5345,24 +5284,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5373,7 +5312,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5385,18 +5324,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5420,13 +5361,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5444,42 +5385,42 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>67</v>
+        <v>322</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5502,20 +5443,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5539,13 +5476,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5563,7 +5500,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5575,7 +5512,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5584,10 +5521,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5598,18 +5535,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5621,16 +5558,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>329</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>124</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5680,76 +5617,78 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5797,42 +5736,42 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5843,7 +5782,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5855,20 +5794,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5916,31 +5851,31 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5951,7 +5886,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5974,13 +5909,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6031,7 +5966,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>192</v>
+        <v>346</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6040,10 +5975,10 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6052,10 +5987,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6066,18 +6001,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6089,18 +6024,20 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6124,13 +6061,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6148,31 +6085,31 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6183,11 +6120,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6200,25 +6137,25 @@
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>124</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6243,13 +6180,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6267,7 +6204,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6279,19 +6216,19 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6302,7 +6239,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6325,16 +6262,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6382,7 +6321,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6391,7 +6330,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6403,10 +6342,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6417,7 +6356,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6440,13 +6379,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6497,7 +6436,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6506,7 +6445,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6518,10 +6457,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6532,7 +6471,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6543,7 +6482,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6552,23 +6491,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6592,37 +6529,37 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6634,13 +6571,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6651,7 +6588,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6671,23 +6608,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6711,13 +6646,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6735,7 +6670,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6753,13 +6688,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6770,7 +6705,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6781,7 +6716,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6790,18 +6725,20 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
         <v>390</v>
       </c>
@@ -6852,13 +6789,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6873,10 +6810,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6887,7 +6824,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6913,10 +6850,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6967,7 +6904,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6979,7 +6916,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6988,10 +6925,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7002,11 +6939,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7022,19 +6959,19 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
+        <v>124</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7084,7 +7021,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7096,7 +7033,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7105,10 +7042,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7119,11 +7056,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7136,24 +7073,26 @@
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>403</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7201,7 +7140,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7213,7 +7152,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7222,10 +7161,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7236,7 +7175,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7244,10 +7183,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7259,19 +7198,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7296,13 +7235,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7320,13 +7259,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7338,16 +7277,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>186</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>412</v>
+        <v>187</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7355,7 +7294,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7375,19 +7314,23 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>403</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7435,7 +7378,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>192</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7447,41 +7390,41 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7493,18 +7436,20 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7528,13 +7473,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7552,19 +7497,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7573,10 +7518,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7587,11 +7532,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7604,25 +7549,25 @@
         <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>357</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7647,13 +7592,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7671,7 +7616,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7683,30 +7628,30 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7714,10 +7659,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7726,22 +7671,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7766,13 +7711,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7790,13 +7735,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7808,499 +7753,23 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO57">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8310,7 +7779,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-plcf.xlsx
+++ b/StructureDefinition-pacio-plcf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="416">
   <si>
     <t>Path</t>
   </si>
@@ -558,10 +558,18 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://paciowg.github.io/cognitive-status-ig/CodeSystem/pacio-cat-cs"/&gt;
+    &lt;code value="functioning"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://paciowg.github.io/cognitive-status-ig/ValueSet/pacio-cat-vs</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -834,9 +842,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1510,7 +1515,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3419,7 +3424,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>44</v>
@@ -3456,7 +3461,7 @@
         <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>45</v>
@@ -3471,13 +3476,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3519,10 +3522,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3530,11 +3533,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3556,16 +3559,16 @@
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3575,7 +3578,7 @@
         <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>45</v>
@@ -3594,7 +3597,7 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3612,7 +3615,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3627,27 +3630,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3670,19 +3673,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3731,7 +3734,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3746,19 +3749,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3789,16 +3792,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3848,7 +3851,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3869,13 +3872,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3883,11 +3886,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3906,19 +3909,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3967,7 +3970,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3982,19 +3985,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4002,11 +4005,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4025,19 +4028,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4086,7 +4089,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4101,19 +4104,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4144,16 +4147,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4203,7 +4206,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4224,13 +4227,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4238,7 +4241,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4261,17 +4264,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4320,7 +4323,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4335,19 +4338,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4355,7 +4358,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4381,16 +4384,16 @@
         <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4418,7 +4421,7 @@
         <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>45</v>
@@ -4439,7 +4442,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4448,7 +4451,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4457,24 +4460,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4500,16 +4503,16 @@
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4534,7 +4537,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>260</v>
@@ -4558,7 +4561,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4653,7 +4656,7 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>269</v>
@@ -7210,7 +7213,7 @@
         <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7241,7 +7244,7 @@
         <v>400</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7280,13 +7283,13 @@
         <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7323,13 +7326,13 @@
         <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7399,16 +7402,16 @@
         <v>406</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7448,7 +7451,7 @@
         <v>410</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7473,7 +7476,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>260</v>
@@ -7592,7 +7595,7 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>269</v>
